--- a/Database.xlsx
+++ b/Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1365b8fb67532b17/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82811A8-28F1-4A27-A627-05536A4EABE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{F82811A8-28F1-4A27-A627-05536A4EABE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CC9A492-621B-464E-9A82-C211EDA9518D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{16D6E07D-6D6D-4C7D-B9E1-C41983DAE3C9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="203">
   <si>
     <t>Livro</t>
   </si>
@@ -666,6 +666,9 @@
   </si>
   <si>
     <t>"Será que vamos sempre pronto? Eu sei que se minhas tarefas não fossem feitas, não seríamos capazes de fazer isso."</t>
+  </si>
+  <si>
+    <t>"Service Dog"</t>
   </si>
 </sst>
 </file>
@@ -1029,23 +1032,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FCE301-2CC1-40FA-920E-00B3C30E61DE}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="3" max="3" width="60" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="4" width="76.77734375" customWidth="1"/>
     <col min="5" max="5" width="28.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1084,8 +1088,11 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1135,8 +1142,9 @@
       <c r="E5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1212,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1221,7 +1229,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1272,7 +1280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1297,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1306,7 +1314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
